--- a/Feature-Analysis/Resize Feature/s_03_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_03_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.44392361108</v>
+        <v>738157.44392361108</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.44451388891</v>
+        <v>738157.44451388891</v>
       </c>
       <c r="C3" s="0">
         <v>51.000005006790161</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.44451388891</v>
+        <v>738157.44451388891</v>
       </c>
       <c r="C4" s="0">
         <v>51.000005006790161</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.44482638885</v>
+        <v>738157.44482638885</v>
       </c>
       <c r="C5" s="0">
         <v>77.99999937415123</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.44510416663</v>
+        <v>738157.44510416663</v>
       </c>
       <c r="C6" s="0">
         <v>101.99999995529652</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.44538194442</v>
+        <v>738157.44538194442</v>
       </c>
       <c r="C7" s="0">
         <v>126.0000005364418</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.44567129633</v>
+        <v>738157.44567129633</v>
       </c>
       <c r="C8" s="0">
         <v>151.00000575184822</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.44598379626</v>
+        <v>738157.44598379626</v>
       </c>
       <c r="C9" s="0">
         <v>178.00000011920929</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.44629629632</v>
+        <v>738157.44629629632</v>
       </c>
       <c r="C10" s="0">
         <v>205.00000454485416</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.44652777782</v>
+        <v>738157.44652777782</v>
       </c>
       <c r="C11" s="0">
         <v>225.00000670552254</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.4468634259</v>
+        <v>738157.4468634259</v>
       </c>
       <c r="C12" s="0">
         <v>254.00000028312206</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.44711805554</v>
+        <v>738157.44711805554</v>
       </c>
       <c r="C13" s="0">
         <v>276.00000165402889</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.4474421296</v>
+        <v>738157.4474421296</v>
       </c>
       <c r="C14" s="0">
         <v>304.00000065565109</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.44768518524</v>
+        <v>738157.44768518524</v>
       </c>
       <c r="C15" s="0">
         <v>325.0000074505806</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.4480092593</v>
+        <v>738157.4480092593</v>
       </c>
       <c r="C16" s="0">
         <v>353.0000064522028</v>
@@ -12112,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.4482986111</v>
+        <v>738157.4482986111</v>
       </c>
       <c r="C17" s="0">
         <v>378.00000160932541</v>
@@ -12807,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.44858796301</v>
+        <v>738157.44858796301</v>
       </c>
       <c r="C18" s="0">
         <v>403.00000682473183</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.4488194444</v>
+        <v>738157.4488194444</v>
       </c>
       <c r="C19" s="0">
         <v>422.99999892711639</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.44913194445</v>
+        <v>738157.44913194445</v>
       </c>
       <c r="C20" s="0">
         <v>450.00000335276127</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.44944444438</v>
+        <v>738157.44944444438</v>
       </c>
       <c r="C21" s="0">
         <v>476.99999772012234</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.44974537042</v>
+        <v>738157.44974537042</v>
       </c>
       <c r="C22" s="0">
         <v>503.00000756978989</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.45003472222</v>
+        <v>738157.45003472222</v>
       </c>
       <c r="C23" s="0">
         <v>528.0000027269125</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.45033564814</v>
+        <v>738157.45033564814</v>
       </c>
       <c r="C24" s="0">
         <v>554.00000251829624</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.45055555552</v>
+        <v>738157.45055555552</v>
       </c>
       <c r="C25" s="0">
         <v>573.00000004470348</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.45084490743</v>
+        <v>738157.45084490743</v>
       </c>
       <c r="C26" s="0">
         <v>598.0000052601099</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.45112268522</v>
+        <v>738157.45112268522</v>
       </c>
       <c r="C27" s="0">
         <v>622.00000584125519</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.45141203701</v>
+        <v>738157.45141203701</v>
       </c>
       <c r="C28" s="0">
         <v>647.0000009983778</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.45180555561</v>
+        <v>738157.45180555561</v>
       </c>
       <c r="C29" s="0">
         <v>681.00000768899918</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.452037037</v>
+        <v>738157.452037037</v>
       </c>
       <c r="C30" s="0">
         <v>700.99999979138374</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.45231481479</v>
+        <v>738157.45231481479</v>
       </c>
       <c r="C31" s="0">
         <v>725.00000037252903</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.45261574071</v>
+        <v>738157.45261574071</v>
       </c>
       <c r="C32" s="0">
         <v>751.00000016391277</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.45288194448</v>
+        <v>738157.45288194448</v>
       </c>
       <c r="C33" s="0">
         <v>774.00000616908073</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.45315972227</v>
+        <v>738157.45315972227</v>
       </c>
       <c r="C34" s="0">
         <v>798.00000675022602</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.45351851848</v>
+        <v>738157.45351851848</v>
       </c>
       <c r="C35" s="0">
         <v>828.999999538064</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.45373842597</v>
+        <v>738157.45373842597</v>
       </c>
       <c r="C36" s="0">
         <v>848.00000712275505</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.4540393519</v>
+        <v>738157.4540393519</v>
       </c>
       <c r="C37" s="0">
         <v>874.00000691413879</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.45431712968</v>
+        <v>738157.45431712968</v>
       </c>
       <c r="C38" s="0">
         <v>898.00000749528408</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.45460648148</v>
+        <v>738157.45460648148</v>
       </c>
       <c r="C39" s="0">
         <v>923.00000265240669</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.45487268514</v>
+        <v>738157.45487268514</v>
       </c>
       <c r="C40" s="0">
         <v>945.99999859929085</v>
